--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="EstoqueSolicitacao" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Lotes" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">EstoqueSolicitacao!$B$1:$W$319</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Lotes!$B$1:$W$319</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
@@ -1185,8 +1185,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),259.0)</f>
-        <v>259</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
+        <v>257</v>
       </c>
       <c r="Q11" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.0)</f>
@@ -1854,8 +1854,8 @@
         <v>0</v>
       </c>
       <c r="P20" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
+        <v>220</v>
       </c>
       <c r="Q20" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2219,8 +2219,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),396.0)</f>
-        <v>396</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
+        <v>392</v>
       </c>
       <c r="Q25" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2371,8 +2371,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),301.0)</f>
-        <v>301</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
+        <v>297</v>
       </c>
       <c r="Q27" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2599,8 +2599,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),519.0)</f>
-        <v>519</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
+        <v>513</v>
       </c>
       <c r="Q30" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -3390,8 +3390,8 @@
         <v>0</v>
       </c>
       <c r="P41" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),276.0)</f>
-        <v>276</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),266.0)</f>
+        <v>266</v>
       </c>
       <c r="Q41" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4433,8 +4433,8 @@
         <v>0</v>
       </c>
       <c r="P55" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),188.0)</f>
-        <v>188</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
+        <v>186</v>
       </c>
       <c r="Q55" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5403,8 +5403,8 @@
         <v>0</v>
       </c>
       <c r="P68" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),197.0)</f>
-        <v>197</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
+        <v>195</v>
       </c>
       <c r="Q68" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5631,8 +5631,8 @@
         <v>0</v>
       </c>
       <c r="P71" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),235.0)</f>
-        <v>235</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="Q71" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -5853,8 +5853,8 @@
         <v>0</v>
       </c>
       <c r="P74" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
+        <v>208</v>
       </c>
       <c r="Q74" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7623,8 +7623,8 @@
         <v>0</v>
       </c>
       <c r="P98" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),566.0)</f>
-        <v>566</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),562.0)</f>
+        <v>562</v>
       </c>
       <c r="Q98" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7699,8 +7699,8 @@
         <v>0</v>
       </c>
       <c r="P99" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),444.0)</f>
-        <v>444</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),432.0)</f>
+        <v>432</v>
       </c>
       <c r="Q99" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -7775,8 +7775,8 @@
         <v>0</v>
       </c>
       <c r="P100" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),199.0)</f>
-        <v>199</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
+        <v>195</v>
       </c>
       <c r="Q100" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -8003,8 +8003,8 @@
         <v>0</v>
       </c>
       <c r="P103" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),247.0)</f>
-        <v>247</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),245.0)</f>
+        <v>245</v>
       </c>
       <c r="Q103" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -8152,12 +8152,12 @@
         <v>0</v>
       </c>
       <c r="P105" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),732.0)</f>
-        <v>732</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
+        <v>728</v>
       </c>
       <c r="Q105" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
-        <v>0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="R105" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3500.0)</f>
@@ -8304,8 +8304,8 @@
         <v>0</v>
       </c>
       <c r="P107" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
-        <v>604</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),598.0)</f>
+        <v>598</v>
       </c>
       <c r="Q107" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
@@ -8608,8 +8608,8 @@
         <v>0</v>
       </c>
       <c r="P111" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
-        <v>79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
       </c>
       <c r="Q111" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
@@ -8678,8 +8678,8 @@
         <v>0</v>
       </c>
       <c r="P112" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
-        <v>79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
       </c>
       <c r="Q112" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
@@ -9800,12 +9800,12 @@
         <v>0</v>
       </c>
       <c r="P127" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),583.0)</f>
-        <v>583</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),579.0)</f>
+        <v>579</v>
       </c>
       <c r="Q127" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="R127" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2000.0)</f>
@@ -17106,8 +17106,8 @@
         <v>0</v>
       </c>
       <c r="P227" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
-        <v>144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="Q227" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
@@ -19226,8 +19226,8 @@
         <v>600</v>
       </c>
       <c r="P256" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
-        <v>298</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
+        <v>292</v>
       </c>
       <c r="Q256" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
@@ -20619,12 +20619,12 @@
         <v>700</v>
       </c>
       <c r="P275" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),987.0)</f>
-        <v>987</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),985.0)</f>
+        <v>985</v>
       </c>
       <c r="Q275" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
+        <v>94</v>
       </c>
       <c r="R275" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3000.0)</f>
@@ -22544,12 +22544,12 @@
         <v>1100</v>
       </c>
       <c r="P301" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),548.0)</f>
-        <v>548</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
+        <v>542</v>
       </c>
       <c r="Q301" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="R301" s="7"/>
       <c r="S301" s="5"/>
@@ -23277,8 +23277,8 @@
         <v>1100</v>
       </c>
       <c r="P311" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),468.0)</f>
-        <v>468</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
+        <v>460</v>
       </c>
       <c r="Q311" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-18.0)</f>
@@ -23423,8 +23423,8 @@
         <v>1500</v>
       </c>
       <c r="P313" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),238.0)</f>
-        <v>238</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
+        <v>236</v>
       </c>
       <c r="Q313" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>

--- a/Controle_Lote_Validade.xlsx
+++ b/Controle_Lote_Validade.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Solicitação de Pedido
 (Keven)</t>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>VALIDADE</t>
+  </si>
+  <si>
+    <t>LOTETESTE</t>
+  </si>
+  <si>
+    <t>09/29</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -120,6 +126,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -336,7 +345,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -1185,8 +1197,8 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),257.0)</f>
-        <v>257</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),253.0)</f>
+        <v>253</v>
       </c>
       <c r="Q11" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.0)</f>
@@ -2219,8 +2231,8 @@
         <v>0</v>
       </c>
       <c r="P25" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),392.0)</f>
-        <v>392</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),380.0)</f>
+        <v>380</v>
       </c>
       <c r="Q25" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2371,8 +2383,8 @@
         <v>0</v>
       </c>
       <c r="P27" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),297.0)</f>
-        <v>297</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),289.0)</f>
+        <v>289</v>
       </c>
       <c r="Q27" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -2599,8 +2611,8 @@
         <v>0</v>
       </c>
       <c r="P30" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
-        <v>513</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
+        <v>511</v>
       </c>
       <c r="Q30" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4433,8 +4445,8 @@
         <v>0</v>
       </c>
       <c r="P55" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),186.0)</f>
-        <v>186</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="Q55" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -4877,8 +4889,8 @@
         <v>0</v>
       </c>
       <c r="P61" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),304.0)</f>
-        <v>304</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),298.0)</f>
+        <v>298</v>
       </c>
       <c r="Q61" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5327,8 +5339,8 @@
         <v>0</v>
       </c>
       <c r="P67" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),188.0)</f>
-        <v>188</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
       </c>
       <c r="Q67" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-2.0)</f>
@@ -5403,8 +5415,8 @@
         <v>0</v>
       </c>
       <c r="P68" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
-        <v>195</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),193.0)</f>
+        <v>193</v>
       </c>
       <c r="Q68" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
@@ -5853,8 +5865,8 @@
         <v>0</v>
       </c>
       <c r="P74" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),208.0)</f>
-        <v>208</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),206.0)</f>
+        <v>206</v>
       </c>
       <c r="Q74" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -6604,8 +6616,8 @@
         <v>0</v>
       </c>
       <c r="P84" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="Q84" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),5.0)</f>
@@ -7623,8 +7635,8 @@
         <v>0</v>
       </c>
       <c r="P98" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),562.0)</f>
-        <v>562</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),546.0)</f>
+        <v>546</v>
       </c>
       <c r="Q98" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -7637,8 +7649,12 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
       <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
+      <c r="V98" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W98" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
@@ -7699,8 +7715,8 @@
         <v>0</v>
       </c>
       <c r="P99" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),432.0)</f>
-        <v>432</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),428.0)</f>
+        <v>428</v>
       </c>
       <c r="Q99" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -7775,8 +7791,8 @@
         <v>0</v>
       </c>
       <c r="P100" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),195.0)</f>
-        <v>195</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),189.0)</f>
+        <v>189</v>
       </c>
       <c r="Q100" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -8152,12 +8168,12 @@
         <v>0</v>
       </c>
       <c r="P105" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
-        <v>728</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),722.0)</f>
+        <v>722</v>
       </c>
       <c r="Q105" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),4.0)</f>
+        <v>4</v>
       </c>
       <c r="R105" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3500.0)</f>
@@ -8304,8 +8320,8 @@
         <v>0</v>
       </c>
       <c r="P107" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),598.0)</f>
-        <v>598</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),586.0)</f>
+        <v>586</v>
       </c>
       <c r="Q107" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
@@ -15114,8 +15130,8 @@
         <v>125</v>
       </c>
       <c r="P200" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="Q200" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
@@ -16224,8 +16240,8 @@
         <v>264</v>
       </c>
       <c r="P215" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),273.0)</f>
-        <v>273</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),263.0)</f>
+        <v>263</v>
       </c>
       <c r="Q215" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-1.0)</f>
@@ -17106,8 +17122,8 @@
         <v>0</v>
       </c>
       <c r="P227" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
-        <v>138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="Q227" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-10.0)</f>
@@ -19226,8 +19242,8 @@
         <v>600</v>
       </c>
       <c r="P256" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),292.0)</f>
-        <v>292</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),286.0)</f>
+        <v>286</v>
       </c>
       <c r="Q256" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
@@ -20619,12 +20635,12 @@
         <v>700</v>
       </c>
       <c r="P275" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),985.0)</f>
-        <v>985</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),981.0)</f>
+        <v>981</v>
       </c>
       <c r="Q275" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),94.0)</f>
-        <v>94</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),98.0)</f>
+        <v>98</v>
       </c>
       <c r="R275" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3000.0)</f>
@@ -22544,8 +22560,8 @@
         <v>1100</v>
       </c>
       <c r="P301" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),542.0)</f>
-        <v>542</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),528.0)</f>
+        <v>528</v>
       </c>
       <c r="Q301" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
@@ -23277,12 +23293,12 @@
         <v>1100</v>
       </c>
       <c r="P311" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),460.0)</f>
-        <v>460</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),446.0)</f>
+        <v>446</v>
       </c>
       <c r="Q311" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-18.0)</f>
-        <v>-18</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),-14.0)</f>
+        <v>-14</v>
       </c>
       <c r="R311" s="7"/>
       <c r="S311" s="5"/>
@@ -23423,8 +23439,8 @@
         <v>1500</v>
       </c>
       <c r="P313" s="7">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),236.0)</f>
-        <v>236</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
       </c>
       <c r="Q313" s="7">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),0.0)</f>
